--- a/experiment result/128_0.5_40_zs20_kappa_lp.xlsx
+++ b/experiment result/128_0.5_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03074305132947256</v>
+        <v>0.00197916544507858</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04058020369801545</v>
+        <v>0.005142431449341301</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0701869977513243</v>
+        <v>0.01119888970861784</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05775326016891995</v>
+        <v>0.01272300212570571</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0336429974652003</v>
+        <v>0.001900822391303413</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04448599301823687</v>
+        <v>0.01278118997008811</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03641810050225306</v>
+        <v>0.01091708203265117</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03109189865455033</v>
+        <v>0.002868516270222253</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04322870971910685</v>
+        <v>0.008288880333957997</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04579578684397254</v>
+        <v>0.02118678702653931</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07181382924317191</v>
+        <v>0.008411154025919881</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09141348045464509</v>
+        <v>0.03389371836820336</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04000505512803303</v>
+        <v>0.006233051905428823</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06129211765329902</v>
+        <v>0.007212699110838203</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06457386350219396</v>
+        <v>0.01005972166850947</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02923028514067099</v>
+        <v>0.005521792795597087</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06120363830261065</v>
+        <v>0.006299312196683715</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01795552718471418</v>
+        <v>0.0009971246191071426</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.04754618342801689</v>
+        <v>0.01631010580184988</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04885440191709316</v>
+        <v>0.009673170264936814</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02591071321339762</v>
+        <v>0.001732742585380083</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0309575574263732</v>
+        <v>0.003952721630469348</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05203250801041653</v>
+        <v>0.01805700594819196</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01683558031969271</v>
+        <v>0.003368524083495772</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01651305831084285</v>
+        <v>0.0007201100434618738</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05640029650580915</v>
+        <v>0.006965789396714018</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04251333562373559</v>
+        <v>0.005191682166861436</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03814585783238907</v>
+        <v>0.01083897570152493</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.03424133652416399</v>
+        <v>0.009014598934708011</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03940507526123926</v>
+        <v>0.01265083719570875</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02114427494543222</v>
+        <v>0.001457460612729681</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04025426062276977</v>
+        <v>0.003589114142312972</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.04890318747752134</v>
+        <v>0.009865512684747463</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02939169625051485</v>
+        <v>0.006148380811914074</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06291446863634804</v>
+        <v>0.008324669281506419</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03829513628011109</v>
+        <v>0.01350851714418561</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04380356189048915</v>
+        <v>0.007863997213782834</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0476869781334799</v>
+        <v>0.004003523053898011</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.03958096598918491</v>
+        <v>0.01002983876227635</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.04969512064086532</v>
+        <v>0.01128492283812197</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03844706506571763</v>
+        <v>0.01174628008255246</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02734788965214129</v>
+        <v>0.01130527412539164</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.04342776816774434</v>
+        <v>0.02433356486705082</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.04462605658367634</v>
+        <v>0.01463083432886352</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03677878580396605</v>
+        <v>0.01340794586031817</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.05529466810693717</v>
+        <v>0.01888262464681244</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04514065491442357</v>
+        <v>0.03126363395442144</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02081571899779914</v>
+        <v>0.002408602163059292</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0475810114222746</v>
+        <v>0.004016012933651806</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02248304693602962</v>
+        <v>0.001666172150597962</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.03069160139153284</v>
+        <v>0.007162116734205942</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03349704344363721</v>
+        <v>0.007494432109417766</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01436613844122461</v>
+        <v>0.0009083942289991725</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01993839306873677</v>
+        <v>0.001635417671770706</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02744185416705136</v>
+        <v>0.005209097967275334</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.03748417746900671</v>
+        <v>0.01106582921730974</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.04238674068591386</v>
+        <v>0.005380325275775899</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.04640713577318008</v>
+        <v>0.0069928559066538</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03516407450003679</v>
+        <v>0.005835723334793297</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.03586267416441121</v>
+        <v>0.007960978603036057</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.00889934717097971</v>
+        <v>0.0007503269327943622</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0272180089324107</v>
+        <v>0.003301301294683435</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.039241313682524</v>
+        <v>0.00649308872689956</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02757448777664881</v>
+        <v>0.002745077767930917</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.04989338132898124</v>
+        <v>0.004981936336308064</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06054676468080691</v>
+        <v>0.009527174635502568</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05190390793253952</v>
+        <v>0.009030929787766925</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02209593369963459</v>
+        <v>0.005328227421759589</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02317634030764457</v>
+        <v>0.005098990471278299</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02255100821842209</v>
+        <v>0.004978540835583687</v>
       </c>
     </row>
   </sheetData>
